--- a/data/trans_orig/P78A_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P78A_2023-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>102052</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>89471</v>
+        <v>89106</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>110652</v>
+        <v>110550</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8694416129590465</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7622639580795136</v>
+        <v>0.7591467923916103</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9427100199210662</v>
+        <v>0.9418483758520788</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>257</v>
@@ -762,19 +762,19 @@
         <v>145267</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>134750</v>
+        <v>133507</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>152451</v>
+        <v>152338</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8732780137957502</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8100559075510848</v>
+        <v>0.8025810226875507</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9164657181919633</v>
+        <v>0.9157833852344144</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>378</v>
@@ -783,19 +783,19 @@
         <v>247319</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>232334</v>
+        <v>231252</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>259089</v>
+        <v>258595</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8716908989741016</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8188756160993123</v>
+        <v>0.8150636508503317</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9131753115456321</v>
+        <v>0.9114360941929998</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>15324</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6724</v>
+        <v>6826</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>27905</v>
+        <v>28270</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1305583870409535</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05728998007893381</v>
+        <v>0.05815162414792113</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2377360419204863</v>
+        <v>0.2408532076083896</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>29</v>
@@ -833,19 +833,19 @@
         <v>21080</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>13896</v>
+        <v>14009</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>31597</v>
+        <v>32840</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1267219862042498</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08353428180803667</v>
+        <v>0.08421661476558553</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1899440924489153</v>
+        <v>0.1974189773124491</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>38</v>
@@ -854,19 +854,19 @@
         <v>36404</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>24634</v>
+        <v>25128</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>51389</v>
+        <v>52471</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1283091010258984</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08682468845436786</v>
+        <v>0.08856390580700028</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1811243839006879</v>
+        <v>0.1849363491496684</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>237725</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>213348</v>
+        <v>214488</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>255152</v>
+        <v>254563</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.8544414868928659</v>
+        <v>0.854441486892866</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7668228447710409</v>
+        <v>0.7709207513553156</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9170763167163438</v>
+        <v>0.9149598700795895</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>384</v>
@@ -979,19 +979,19 @@
         <v>269995</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>250390</v>
+        <v>250567</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>286678</v>
+        <v>285436</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.7161811141818146</v>
+        <v>0.7161811141818144</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6641797953601963</v>
+        <v>0.6646486921764357</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7604341330239887</v>
+        <v>0.7571414943260775</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>580</v>
@@ -1000,19 +1000,19 @@
         <v>507720</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>478536</v>
+        <v>479877</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>531646</v>
+        <v>531723</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.7748903632739274</v>
+        <v>0.7748903632739276</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7303490838840452</v>
+        <v>0.7323966760449712</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8114065146216914</v>
+        <v>0.8115245908985856</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>40498</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>23071</v>
+        <v>23660</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>64875</v>
+        <v>63735</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.145558513107134</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08292368328365625</v>
+        <v>0.08504012992041056</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.233177155228959</v>
+        <v>0.2290792486446846</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>127</v>
@@ -1050,19 +1050,19 @@
         <v>106997</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>90314</v>
+        <v>91556</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>126602</v>
+        <v>126425</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2838188858181854</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2395658669760111</v>
+        <v>0.2428585056739224</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3358202046398034</v>
+        <v>0.3353513078235641</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>141</v>
@@ -1071,19 +1071,19 @@
         <v>147495</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>123569</v>
+        <v>123492</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>176679</v>
+        <v>175338</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2251096367260725</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1885934853783087</v>
+        <v>0.1884754091014145</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2696509161159548</v>
+        <v>0.267603323955029</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>140438</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>127928</v>
+        <v>128994</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>149101</v>
+        <v>149397</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8660015493004435</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7888610412231326</v>
+        <v>0.7954350227607921</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9194207609657712</v>
+        <v>0.9212503583515947</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>323</v>
@@ -1196,19 +1196,19 @@
         <v>196554</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>183898</v>
+        <v>184891</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>205932</v>
+        <v>205998</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.8374441925078654</v>
+        <v>0.8374441925078655</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.783523371954182</v>
+        <v>0.7877528653933623</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8773991666528804</v>
+        <v>0.8776798070823245</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>514</v>
@@ -1217,19 +1217,19 @@
         <v>336992</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>321360</v>
+        <v>320711</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>351535</v>
+        <v>350561</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.8491130976198279</v>
+        <v>0.849113097619828</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.80972526080662</v>
+        <v>0.8080905868989615</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.885756431318699</v>
+        <v>0.883303567746528</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>21730</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>13067</v>
+        <v>12771</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>34240</v>
+        <v>33174</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1339984506995565</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08057923903422887</v>
+        <v>0.07874964164840539</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2111389587768675</v>
+        <v>0.2045649772392081</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>47</v>
@@ -1267,19 +1267,19 @@
         <v>38153</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>28775</v>
+        <v>28709</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>50809</v>
+        <v>49816</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1625558074921346</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1226008333471196</v>
+        <v>0.1223201929176755</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2164766280458181</v>
+        <v>0.2122471346066379</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>61</v>
@@ -1288,19 +1288,19 @@
         <v>59883</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>45340</v>
+        <v>46314</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>75515</v>
+        <v>76164</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.150886902380172</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1142435686813009</v>
+        <v>0.1166964322534722</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1902747391933799</v>
+        <v>0.1919094131010387</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>142936</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>122953</v>
+        <v>119383</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>156262</v>
+        <v>154576</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.8743656653274262</v>
+        <v>0.8743656653274265</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7521282752785563</v>
+        <v>0.7302894584327905</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9558851106012248</v>
+        <v>0.9455685554589213</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>333</v>
@@ -1413,19 +1413,19 @@
         <v>188623</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>172333</v>
+        <v>172957</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>201703</v>
+        <v>203305</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.7643636147037653</v>
+        <v>0.7643636147037655</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6983532505672987</v>
+        <v>0.7008811729196278</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8173682621330512</v>
+        <v>0.8238616452625716</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>493</v>
@@ -1434,19 +1434,19 @@
         <v>331559</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>306840</v>
+        <v>306378</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>350791</v>
+        <v>349727</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.8081972145270736</v>
+        <v>0.8081972145270737</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.747942388579243</v>
+        <v>0.7468168630516727</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8550778203830984</v>
+        <v>0.8524835746175216</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>20538</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7212</v>
+        <v>8898</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>40521</v>
+        <v>44091</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1256343346725737</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04411488939877518</v>
+        <v>0.0544314445410787</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2478717247214432</v>
+        <v>0.2697105415672096</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>65</v>
@@ -1484,19 +1484,19 @@
         <v>58148</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>45068</v>
+        <v>43466</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>74438</v>
+        <v>73814</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2356363852962346</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1826317378669485</v>
+        <v>0.1761383547374275</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3016467494327008</v>
+        <v>0.299118827080372</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>72</v>
@@ -1505,19 +1505,19 @@
         <v>78686</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>59454</v>
+        <v>60518</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>103405</v>
+        <v>103867</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1918027854729263</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1449221796169015</v>
+        <v>0.1475164253824785</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2520576114207568</v>
+        <v>0.253183136948327</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>53185</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>44057</v>
+        <v>44557</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>60031</v>
+        <v>59716</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.7904045622326227</v>
+        <v>0.7904045622326226</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6547524024359412</v>
+        <v>0.6621833689064632</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8921454264279319</v>
+        <v>0.8874706664099846</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>210</v>
@@ -1630,19 +1630,19 @@
         <v>82811</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>74040</v>
+        <v>73784</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>89912</v>
+        <v>89685</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7762094722361517</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.693994057970602</v>
+        <v>0.6915949372568401</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8427646756997789</v>
+        <v>0.8406366937454252</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>305</v>
@@ -1651,19 +1651,19 @@
         <v>135996</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>124481</v>
+        <v>124908</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>145881</v>
+        <v>145935</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.7816996780634852</v>
+        <v>0.7816996780634854</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7155127397451901</v>
+        <v>0.7179626552323446</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8385185329280422</v>
+        <v>0.8388278942291145</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>14103</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7257</v>
+        <v>7572</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>23231</v>
+        <v>22731</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2095954377673772</v>
+        <v>0.2095954377673773</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.107854573572068</v>
+        <v>0.1125293335900155</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3452475975640587</v>
+        <v>0.3378166310935373</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>40</v>
@@ -1701,19 +1701,19 @@
         <v>23876</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>16775</v>
+        <v>17002</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>32647</v>
+        <v>32903</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2237905277638482</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1572353243002211</v>
+        <v>0.1593633062545748</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3060059420293982</v>
+        <v>0.3084050627431599</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>51</v>
@@ -1722,19 +1722,19 @@
         <v>37979</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>28094</v>
+        <v>28040</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>49494</v>
+        <v>49067</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2183003219365148</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1614814670719581</v>
+        <v>0.1611721057708854</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2844872602548097</v>
+        <v>0.2820373447676557</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>122848</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>114364</v>
+        <v>113844</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>128293</v>
+        <v>128296</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.9171082998848076</v>
+        <v>0.9171082998848075</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.8537780650141821</v>
+        <v>0.8498939246237254</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9577638513774051</v>
+        <v>0.9577825717723149</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>281</v>
@@ -1847,19 +1847,19 @@
         <v>138176</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>126947</v>
+        <v>127311</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>147751</v>
+        <v>146796</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7696469125059117</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7070996893479025</v>
+        <v>0.7091253196080401</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8229811171233505</v>
+        <v>0.8176583883425043</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>487</v>
@@ -1868,19 +1868,19 @@
         <v>261024</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>247500</v>
+        <v>247600</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>273142</v>
+        <v>272835</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.8326571291995516</v>
+        <v>0.8326571291995517</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7895180890221654</v>
+        <v>0.7898346064350885</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8713145464155945</v>
+        <v>0.8703334414557989</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>11103</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5658</v>
+        <v>5655</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>19587</v>
+        <v>20107</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.08289170011519249</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04223614862259498</v>
+        <v>0.04221742822768495</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1462219349858179</v>
+        <v>0.1501060753762745</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>55</v>
@@ -1918,19 +1918,19 @@
         <v>41356</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>31781</v>
+        <v>32736</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>52585</v>
+        <v>52221</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2303530874940884</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1770188828766494</v>
+        <v>0.1823416116574958</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2929003106520975</v>
+        <v>0.2908746803919604</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>65</v>
@@ -1939,19 +1939,19 @@
         <v>52459</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>40341</v>
+        <v>40648</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>65983</v>
+        <v>65883</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1673428708004483</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1286854535844058</v>
+        <v>0.1296665585442009</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2104819109778346</v>
+        <v>0.2101653935649112</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>279797</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>253437</v>
+        <v>255681</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>297093</v>
+        <v>299605</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8517337956316667</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7714916174412639</v>
+        <v>0.7783231329049302</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9043829690512382</v>
+        <v>0.9120313865315557</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>435</v>
@@ -2064,19 +2064,19 @@
         <v>320942</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>300890</v>
+        <v>301519</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>337745</v>
+        <v>337455</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.8058460946013059</v>
+        <v>0.805846094601306</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7554977708360254</v>
+        <v>0.757076949823465</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8480362051280166</v>
+        <v>0.8473076175777171</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>702</v>
@@ -2085,19 +2085,19 @@
         <v>600739</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>571822</v>
+        <v>571411</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>625721</v>
+        <v>625427</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.8265875219404918</v>
+        <v>0.8265875219404916</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7867989213185164</v>
+        <v>0.7862335911319162</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8609616662458923</v>
+        <v>0.8605569442252309</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>48706</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>31410</v>
+        <v>28898</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>75066</v>
+        <v>72822</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1482662043683334</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.09561703094876206</v>
+        <v>0.08796861346844446</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2285083825587364</v>
+        <v>0.2216768670950698</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>70</v>
@@ -2135,19 +2135,19 @@
         <v>77325</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>60522</v>
+        <v>60812</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>97377</v>
+        <v>96748</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1941539053986942</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1519637948719832</v>
+        <v>0.1526923824222827</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2445022291639741</v>
+        <v>0.2429230501765351</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>87</v>
@@ -2156,19 +2156,19 @@
         <v>126031</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>101049</v>
+        <v>101343</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>154948</v>
+        <v>155359</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1734124780595083</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1390383337541077</v>
+        <v>0.139443055774769</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2132010786814837</v>
+        <v>0.2137664088680836</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>282497</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>261491</v>
+        <v>262942</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>297983</v>
+        <v>299960</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.8322294800862206</v>
+        <v>0.8322294800862208</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7703452797643839</v>
+        <v>0.7746201196266477</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8778513469115333</v>
+        <v>0.8836745672004445</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>526</v>
@@ -2281,19 +2281,19 @@
         <v>362455</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>341889</v>
+        <v>341167</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>383261</v>
+        <v>383724</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.6978712229021096</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6582728110582357</v>
+        <v>0.6568830397498835</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7379309659650947</v>
+        <v>0.7388223735096866</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>872</v>
@@ -2302,19 +2302,19 @@
         <v>644952</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>613650</v>
+        <v>615354</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>670294</v>
+        <v>672334</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.7509759814247708</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.7145279966139669</v>
+        <v>0.7165117667242032</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7804828672557809</v>
+        <v>0.7828588958920883</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>56949</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>41463</v>
+        <v>39486</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>77955</v>
+        <v>76504</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1677705199137793</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1221486530884674</v>
+        <v>0.1163254327995549</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2296547202356163</v>
+        <v>0.2253798803733522</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>163</v>
@@ -2352,19 +2352,19 @@
         <v>156918</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>136112</v>
+        <v>135649</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>177484</v>
+        <v>178206</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.3021287770978904</v>
+        <v>0.3021287770978905</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2620690340349055</v>
+        <v>0.2611776264903134</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3417271889417645</v>
+        <v>0.3431169602501167</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>192</v>
@@ -2373,19 +2373,19 @@
         <v>213867</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>188525</v>
+        <v>186485</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>245169</v>
+        <v>243465</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2490240185752292</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2195171327442191</v>
+        <v>0.2171411041079116</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2854720033860332</v>
+        <v>0.2834882332757966</v>
       </c>
     </row>
     <row r="27">
@@ -2477,19 +2477,19 @@
         <v>1361478</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1317399</v>
+        <v>1315105</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1403178</v>
+        <v>1402278</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.8560439109786249</v>
+        <v>0.856043910978625</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.82832889431629</v>
+        <v>0.8268864807070287</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8822633300594558</v>
+        <v>0.8816971427279654</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2749</v>
@@ -2498,19 +2498,19 @@
         <v>1704824</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1666162</v>
+        <v>1660385</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1748729</v>
+        <v>1743620</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.7649490569367212</v>
+        <v>0.7649490569367213</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7476017019787169</v>
+        <v>0.7450095357935357</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7846493198523155</v>
+        <v>0.7823568478048022</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4331</v>
@@ -2519,19 +2519,19 @@
         <v>3066302</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3005159</v>
+        <v>3009035</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3119360</v>
+        <v>3126619</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.8028846296166554</v>
+        <v>0.8028846296166555</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7868749233761859</v>
+        <v>0.7878898394284281</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8167774255038026</v>
+        <v>0.8186783611274269</v>
       </c>
     </row>
     <row r="29">
@@ -2548,19 +2548,19 @@
         <v>228952</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>187252</v>
+        <v>188152</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>273031</v>
+        <v>275325</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1439560890213752</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1177366699405442</v>
+        <v>0.1183028572720348</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.17167110568371</v>
+        <v>0.1731135192929713</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>596</v>
@@ -2569,19 +2569,19 @@
         <v>523852</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>479947</v>
+        <v>485056</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>562514</v>
+        <v>568291</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2350509430632788</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2153506801476844</v>
+        <v>0.2176431521951977</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2523982980212833</v>
+        <v>0.2549904642064643</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>707</v>
@@ -2590,19 +2590,19 @@
         <v>752804</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>699746</v>
+        <v>692487</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>813947</v>
+        <v>810071</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.1971153703833444</v>
+        <v>0.1971153703833445</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1832225744961978</v>
+        <v>0.1813216388725731</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2131250766238144</v>
+        <v>0.2121101605715718</v>
       </c>
     </row>
     <row r="30">
